--- a/predicao_preco_locacao/precos_porto_seguro.xlsx
+++ b/predicao_preco_locacao/precos_porto_seguro.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozam\Documents\ABLA\projetos\predicao_preco_locacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B30E99-8DF7-4699-BC87-D146F62E371C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1E301-0275-4DD0-9A33-91E3B0724ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15ED140B-8B31-49FB-953C-AB358474D76A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{15ED140B-8B31-49FB-953C-AB358474D76A}"/>
   </bookViews>
   <sheets>
     <sheet name="porto_seguro" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="rent_cars" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="133">
   <si>
     <t>VIRTUS</t>
   </si>
@@ -222,6 +222,219 @@
   </si>
   <si>
     <t>preco_km</t>
+  </si>
+  <si>
+    <t>variacao</t>
+  </si>
+  <si>
+    <t>veiculo</t>
+  </si>
+  <si>
+    <t>VW Up! ou similar </t>
+  </si>
+  <si>
+    <t>Econômico / A</t>
+  </si>
+  <si>
+    <t>local_retirada</t>
+  </si>
+  <si>
+    <t>qtdd_passageiros</t>
+  </si>
+  <si>
+    <t>cambio</t>
+  </si>
+  <si>
+    <t>ar_condicionado</t>
+  </si>
+  <si>
+    <t>km_ilimitado</t>
+  </si>
+  <si>
+    <t>km_periodo</t>
+  </si>
+  <si>
+    <t>km_periodo_valor</t>
+  </si>
+  <si>
+    <t>km_dia</t>
+  </si>
+  <si>
+    <t>km_dia_valor</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Serviço de Shuttle</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Fiat Mobi ou similar </t>
+  </si>
+  <si>
+    <t>Econômico / B</t>
+  </si>
+  <si>
+    <t>portas</t>
+  </si>
+  <si>
+    <t>mala</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>locadora</t>
+  </si>
+  <si>
+    <t>foco</t>
+  </si>
+  <si>
+    <t>Renault Kwid ou similar </t>
+  </si>
+  <si>
+    <t>Econômico / AM</t>
+  </si>
+  <si>
+    <t>Balcão de Atendimento no Aeroporto</t>
+  </si>
+  <si>
+    <t>unidas</t>
+  </si>
+  <si>
+    <t>VW Gol ou similar </t>
+  </si>
+  <si>
+    <t>Econômico / D</t>
+  </si>
+  <si>
+    <t>Chevrolet Onix ou similar </t>
+  </si>
+  <si>
+    <t>Econômico / D+</t>
+  </si>
+  <si>
+    <t>Fiat Argo ou similar </t>
+  </si>
+  <si>
+    <t>Hyundai HB20 ou similar </t>
+  </si>
+  <si>
+    <t>Compacto / BX</t>
+  </si>
+  <si>
+    <t>movida</t>
+  </si>
+  <si>
+    <t>Peugeot 208 ou similar </t>
+  </si>
+  <si>
+    <t>Compacto / C</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Renault Sandero ou similar </t>
+  </si>
+  <si>
+    <t>Compacto / E</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Compacto / D</t>
+  </si>
+  <si>
+    <t>automatico</t>
+  </si>
+  <si>
+    <t>Renault Logan ou similar </t>
+  </si>
+  <si>
+    <t>Intermediário / F</t>
+  </si>
+  <si>
+    <t>Chevrolet Onix Plus ou similar </t>
+  </si>
+  <si>
+    <t>Intermediário / BS</t>
+  </si>
+  <si>
+    <t>Fiat Cronos ou similar </t>
+  </si>
+  <si>
+    <t>Chevrolet Prisma ou similar </t>
+  </si>
+  <si>
+    <t>Intermediário / C</t>
+  </si>
+  <si>
+    <t>Hyundai HB20S ou similar </t>
+  </si>
+  <si>
+    <t>Intermediário / FX</t>
+  </si>
+  <si>
+    <t>Peugeot 2008 ou similar </t>
+  </si>
+  <si>
+    <t>SUV / H</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Jeep Renegade ou similar </t>
+  </si>
+  <si>
+    <t>SUV / HW</t>
+  </si>
+  <si>
+    <t>Renault Captur ou similar </t>
+  </si>
+  <si>
+    <t>SUV / HX</t>
+  </si>
+  <si>
+    <t>Jeep Compass ou similar </t>
+  </si>
+  <si>
+    <t>SUV / HY</t>
+  </si>
+  <si>
+    <t>VW Tiguan 4x2 ou similar </t>
+  </si>
+  <si>
+    <t>SUV / KX</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>VW Saveiro ou similar </t>
+  </si>
+  <si>
+    <t>Utilitário / L</t>
+  </si>
+  <si>
+    <t>SP</t>
   </si>
 </sst>
 </file>
@@ -581,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D1A5E-45B7-4697-9516-9C8D017E86A5}">
-  <dimension ref="A1:K265"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,10 +807,11 @@
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="31.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -631,8 +845,11 @@
       <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -668,8 +885,12 @@
         <f>J2/I2</f>
         <v>0.25991666666666668</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>100 - (K2*100/$K$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -705,8 +926,12 @@
         <f t="shared" ref="K3:K66" si="1">J3/I3</f>
         <v>0.17716666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>100-(K3*100/$K$2)</f>
+        <v>31.837127284386028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -742,8 +967,12 @@
         <f t="shared" si="1"/>
         <v>0.13620833333333332</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <f>100-(K4*100/$K$2)</f>
+        <v>47.595383135620402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -779,8 +1008,12 @@
         <f t="shared" si="1"/>
         <v>0.11196666666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>100-(K5*100/$K$2)</f>
+        <v>56.922090413594098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -816,8 +1049,12 @@
         <f t="shared" si="1"/>
         <v>0.26824999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>100-(K6*100/$K$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -853,8 +1090,12 @@
         <f t="shared" si="1"/>
         <v>0.18272222222222223</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <f t="shared" ref="L7:L10" si="2">100-(K7*100/$K$6)</f>
+        <v>31.883607745676713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -890,8 +1131,12 @@
         <f t="shared" si="1"/>
         <v>0.140375</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>47.670083876980428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -927,8 +1172,12 @@
         <f t="shared" si="1"/>
         <v>0.1153</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>57.017707362534949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -964,8 +1213,12 @@
         <f t="shared" si="1"/>
         <v>0.27658333333333335</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f>100-(K10*100/$K$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1001,8 +1254,12 @@
         <f t="shared" si="1"/>
         <v>0.18827777777777777</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="3">100-(K11*100/$K$10)</f>
+        <v>31.927287335542843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1038,8 +1295,12 @@
         <f t="shared" si="1"/>
         <v>0.14454166666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>47.740283217836698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1075,8 +1336,12 @@
         <f t="shared" si="1"/>
         <v>0.11863333333333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>57.107562518830974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1378,7 @@
         <v>0.14158333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1150,7 +1415,7 @@
         <v>9.8277777777777783E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3063,14 +3328,14 @@
         <v>27000</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I130" si="2">H67/G67</f>
+        <f t="shared" ref="I67:I130" si="4">H67/G67</f>
         <v>18000</v>
       </c>
       <c r="J67" s="1">
         <v>2659</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="3">J67/I67</f>
+        <f t="shared" ref="K67:K130" si="5">J67/I67</f>
         <v>0.14772222222222223</v>
       </c>
     </row>
@@ -3100,14 +3365,14 @@
         <v>36000</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J68" s="1">
         <v>2739</v>
       </c>
       <c r="K68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.114125</v>
       </c>
     </row>
@@ -3137,14 +3402,14 @@
         <v>45000</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J69" s="1">
         <v>2829</v>
       </c>
       <c r="K69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4299999999999995E-2</v>
       </c>
     </row>
@@ -3174,14 +3439,14 @@
         <v>12000</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J70" s="1">
         <v>2689</v>
       </c>
       <c r="K70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.22408333333333333</v>
       </c>
     </row>
@@ -3211,14 +3476,14 @@
         <v>18000</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J71" s="1">
         <v>2759</v>
       </c>
       <c r="K71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15327777777777779</v>
       </c>
     </row>
@@ -3248,14 +3513,14 @@
         <v>24000</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J72" s="1">
         <v>2819</v>
       </c>
       <c r="K72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11745833333333333</v>
       </c>
     </row>
@@ -3285,14 +3550,14 @@
         <v>30000</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J73" s="1">
         <v>2919</v>
       </c>
       <c r="K73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.7299999999999998E-2</v>
       </c>
     </row>
@@ -3322,14 +3587,14 @@
         <v>24000</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J74" s="1">
         <v>1899</v>
       </c>
       <c r="K74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15825</v>
       </c>
     </row>
@@ -3359,14 +3624,14 @@
         <v>36000</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J75" s="1">
         <v>1969</v>
       </c>
       <c r="K75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10938888888888888</v>
       </c>
     </row>
@@ -3396,14 +3661,14 @@
         <v>48000</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J76" s="1">
         <v>2039</v>
       </c>
       <c r="K76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.495833333333333E-2</v>
       </c>
     </row>
@@ -3433,14 +3698,14 @@
         <v>60000</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J77" s="1">
         <v>2019</v>
       </c>
       <c r="K77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7299999999999999E-2</v>
       </c>
     </row>
@@ -3470,14 +3735,14 @@
         <v>18000</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J78" s="1">
         <v>1989</v>
       </c>
       <c r="K78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16575000000000001</v>
       </c>
     </row>
@@ -3507,14 +3772,14 @@
         <v>27000</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J79" s="1">
         <v>2059</v>
       </c>
       <c r="K79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11438888888888889</v>
       </c>
     </row>
@@ -3544,14 +3809,14 @@
         <v>36000</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J80" s="1">
         <v>2129</v>
       </c>
       <c r="K80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8708333333333333E-2</v>
       </c>
     </row>
@@ -3581,14 +3846,14 @@
         <v>45000</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J81" s="1">
         <v>2199</v>
       </c>
       <c r="K81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
@@ -3618,14 +3883,14 @@
         <v>12000</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J82" s="1">
         <v>1999</v>
       </c>
       <c r="K82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16658333333333333</v>
       </c>
     </row>
@@ -3655,14 +3920,14 @@
         <v>18000</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J83" s="1">
         <v>2069</v>
       </c>
       <c r="K83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11494444444444445</v>
       </c>
     </row>
@@ -3692,14 +3957,14 @@
         <v>24000</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J84" s="1">
         <v>2139</v>
       </c>
       <c r="K84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9124999999999996E-2</v>
       </c>
     </row>
@@ -3729,14 +3994,14 @@
         <v>30000</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J85" s="1">
         <v>2209</v>
       </c>
       <c r="K85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3633333333333328E-2</v>
       </c>
     </row>
@@ -3766,14 +4031,14 @@
         <v>24000</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J86" s="1">
         <v>3179</v>
       </c>
       <c r="K86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26491666666666669</v>
       </c>
     </row>
@@ -3803,14 +4068,14 @@
         <v>36000</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J87" s="1">
         <v>3249</v>
       </c>
       <c r="K87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18049999999999999</v>
       </c>
     </row>
@@ -3840,14 +4105,14 @@
         <v>48000</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J88" s="1">
         <v>3329</v>
       </c>
       <c r="K88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13870833333333332</v>
       </c>
     </row>
@@ -3877,14 +4142,14 @@
         <v>60000</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J89" s="1">
         <v>3419</v>
       </c>
       <c r="K89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11396666666666666</v>
       </c>
     </row>
@@ -3914,14 +4179,14 @@
         <v>18000</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J90" s="1">
         <v>3279</v>
       </c>
       <c r="K90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27324999999999999</v>
       </c>
     </row>
@@ -3951,14 +4216,14 @@
         <v>27000</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J91" s="1">
         <v>3349</v>
       </c>
       <c r="K91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18605555555555556</v>
       </c>
     </row>
@@ -3988,14 +4253,14 @@
         <v>36000</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J92" s="1">
         <v>3429</v>
       </c>
       <c r="K92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.142875</v>
       </c>
     </row>
@@ -4025,14 +4290,14 @@
         <v>45000</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J93" s="1">
         <v>3519</v>
       </c>
       <c r="K93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1173</v>
       </c>
     </row>
@@ -4062,14 +4327,14 @@
         <v>12000</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J94" s="1">
         <v>3379</v>
       </c>
       <c r="K94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28158333333333335</v>
       </c>
     </row>
@@ -4099,14 +4364,14 @@
         <v>18000</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J95" s="1">
         <v>3449</v>
       </c>
       <c r="K95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19161111111111112</v>
       </c>
     </row>
@@ -4136,14 +4401,14 @@
         <v>24000</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J96" s="1">
         <v>3529</v>
       </c>
       <c r="K96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14704166666666665</v>
       </c>
     </row>
@@ -4173,14 +4438,14 @@
         <v>30000</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J97" s="1">
         <v>3619</v>
       </c>
       <c r="K97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12063333333333333</v>
       </c>
     </row>
@@ -4210,14 +4475,14 @@
         <v>24000</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J98" s="1">
         <v>3509</v>
       </c>
       <c r="K98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29241666666666666</v>
       </c>
     </row>
@@ -4247,14 +4512,14 @@
         <v>36000</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J99" s="1">
         <v>3579</v>
       </c>
       <c r="K99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19883333333333333</v>
       </c>
     </row>
@@ -4284,14 +4549,14 @@
         <v>48000</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J100" s="1">
         <v>3659</v>
       </c>
       <c r="K100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15245833333333333</v>
       </c>
     </row>
@@ -4321,14 +4586,14 @@
         <v>60000</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J101" s="1">
         <v>3749</v>
       </c>
       <c r="K101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12496666666666667</v>
       </c>
     </row>
@@ -4358,14 +4623,14 @@
         <v>18000</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J102" s="1">
         <v>3609</v>
       </c>
       <c r="K102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30075000000000002</v>
       </c>
     </row>
@@ -4395,14 +4660,14 @@
         <v>27000</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J103" s="1">
         <v>3679</v>
       </c>
       <c r="K103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2043888888888889</v>
       </c>
     </row>
@@ -4432,14 +4697,14 @@
         <v>36000</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J104" s="1">
         <v>3759</v>
       </c>
       <c r="K104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15662499999999999</v>
       </c>
     </row>
@@ -4469,14 +4734,14 @@
         <v>45000</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J105" s="1">
         <v>3849</v>
       </c>
       <c r="K105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1283</v>
       </c>
     </row>
@@ -4506,14 +4771,14 @@
         <v>12000</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J106" s="1">
         <v>3709</v>
       </c>
       <c r="K106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30908333333333332</v>
       </c>
     </row>
@@ -4543,14 +4808,14 @@
         <v>18000</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J107" s="1">
         <v>3779</v>
       </c>
       <c r="K107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20994444444444443</v>
       </c>
     </row>
@@ -4580,14 +4845,14 @@
         <v>24000</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J108" s="1">
         <v>3859</v>
       </c>
       <c r="K108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16079166666666667</v>
       </c>
     </row>
@@ -4617,14 +4882,14 @@
         <v>30000</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J109" s="1">
         <v>3949</v>
       </c>
       <c r="K109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13163333333333332</v>
       </c>
     </row>
@@ -4654,14 +4919,14 @@
         <v>24000</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J110" s="1">
         <v>4079</v>
       </c>
       <c r="K110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33991666666666664</v>
       </c>
     </row>
@@ -4691,14 +4956,14 @@
         <v>36000</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J111" s="1">
         <v>4149</v>
       </c>
       <c r="K111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23050000000000001</v>
       </c>
     </row>
@@ -4728,14 +4993,14 @@
         <v>48000</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J112" s="1">
         <v>4229</v>
       </c>
       <c r="K112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17620833333333333</v>
       </c>
     </row>
@@ -4765,14 +5030,14 @@
         <v>60000</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J113" s="1">
         <v>4309</v>
       </c>
       <c r="K113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14363333333333334</v>
       </c>
     </row>
@@ -4802,14 +5067,14 @@
         <v>18000</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J114" s="1">
         <v>4179</v>
       </c>
       <c r="K114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.34825</v>
       </c>
     </row>
@@ -4839,14 +5104,14 @@
         <v>27000</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J115" s="1">
         <v>4249</v>
       </c>
       <c r="K115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23605555555555555</v>
       </c>
     </row>
@@ -4876,14 +5141,14 @@
         <v>36000</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J116" s="1">
         <v>4319</v>
       </c>
       <c r="K116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17995833333333333</v>
       </c>
     </row>
@@ -4913,14 +5178,14 @@
         <v>45000</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J117" s="1">
         <v>4409</v>
       </c>
       <c r="K117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14696666666666666</v>
       </c>
     </row>
@@ -4950,14 +5215,14 @@
         <v>12000</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J118" s="1">
         <v>4269</v>
       </c>
       <c r="K118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35575000000000001</v>
       </c>
     </row>
@@ -4987,14 +5252,14 @@
         <v>18000</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J119" s="1">
         <v>4339</v>
       </c>
       <c r="K119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.24105555555555555</v>
       </c>
     </row>
@@ -5024,14 +5289,14 @@
         <v>24000</v>
       </c>
       <c r="I120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J120" s="1">
         <v>4419</v>
       </c>
       <c r="K120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18412500000000001</v>
       </c>
     </row>
@@ -5061,14 +5326,14 @@
         <v>30000</v>
       </c>
       <c r="I121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J121" s="1">
         <v>4499</v>
       </c>
       <c r="K121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14996666666666666</v>
       </c>
     </row>
@@ -5098,14 +5363,14 @@
         <v>24000</v>
       </c>
       <c r="I122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J122" s="1">
         <v>3239</v>
       </c>
       <c r="K122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26991666666666669</v>
       </c>
     </row>
@@ -5135,14 +5400,14 @@
         <v>36000</v>
       </c>
       <c r="I123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J123" s="1">
         <v>3309</v>
       </c>
       <c r="K123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18383333333333332</v>
       </c>
     </row>
@@ -5172,14 +5437,14 @@
         <v>48000</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J124" s="1">
         <v>3389</v>
       </c>
       <c r="K124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14120833333333332</v>
       </c>
     </row>
@@ -5209,14 +5474,14 @@
         <v>60000</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J125" s="1">
         <v>3479</v>
       </c>
       <c r="K125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11596666666666666</v>
       </c>
     </row>
@@ -5246,14 +5511,14 @@
         <v>18000</v>
       </c>
       <c r="I126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J126" s="1">
         <v>3339</v>
       </c>
       <c r="K126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27825</v>
       </c>
     </row>
@@ -5283,14 +5548,14 @@
         <v>27000</v>
       </c>
       <c r="I127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="J127" s="1">
         <v>3409</v>
       </c>
       <c r="K127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18938888888888888</v>
       </c>
     </row>
@@ -5320,14 +5585,14 @@
         <v>36000</v>
       </c>
       <c r="I128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="J128" s="1">
         <v>3489</v>
       </c>
       <c r="K128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.145375</v>
       </c>
     </row>
@@ -5357,14 +5622,14 @@
         <v>45000</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="J129" s="1">
         <v>3579</v>
       </c>
       <c r="K129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1193</v>
       </c>
     </row>
@@ -5394,14 +5659,14 @@
         <v>12000</v>
       </c>
       <c r="I130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="J130" s="1">
         <v>3439</v>
       </c>
       <c r="K130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28658333333333336</v>
       </c>
     </row>
@@ -5431,14 +5696,14 @@
         <v>18000</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" ref="I131:I194" si="4">H131/G131</f>
+        <f t="shared" ref="I131:I194" si="6">H131/G131</f>
         <v>18000</v>
       </c>
       <c r="J131" s="1">
         <v>3509</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="5">J131/I131</f>
+        <f t="shared" ref="K131:K194" si="7">J131/I131</f>
         <v>0.19494444444444445</v>
       </c>
     </row>
@@ -5468,14 +5733,14 @@
         <v>24000</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J132" s="1">
         <v>3589</v>
       </c>
       <c r="K132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14954166666666666</v>
       </c>
     </row>
@@ -5505,14 +5770,14 @@
         <v>30000</v>
       </c>
       <c r="I133" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J133" s="1">
         <v>3679</v>
       </c>
       <c r="K133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12263333333333333</v>
       </c>
     </row>
@@ -5542,14 +5807,14 @@
         <v>24000</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J134" s="1">
         <v>3039</v>
       </c>
       <c r="K134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25324999999999998</v>
       </c>
     </row>
@@ -5579,14 +5844,14 @@
         <v>36000</v>
       </c>
       <c r="I135" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J135" s="1">
         <v>3109</v>
       </c>
       <c r="K135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17272222222222222</v>
       </c>
     </row>
@@ -5616,14 +5881,14 @@
         <v>48000</v>
       </c>
       <c r="I136" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J136" s="1">
         <v>3189</v>
       </c>
       <c r="K136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13287499999999999</v>
       </c>
     </row>
@@ -5653,14 +5918,14 @@
         <v>60000</v>
       </c>
       <c r="I137" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J137" s="1">
         <v>3279</v>
       </c>
       <c r="K137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10929999999999999</v>
       </c>
     </row>
@@ -5690,14 +5955,14 @@
         <v>18000</v>
       </c>
       <c r="I138" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J138" s="1">
         <v>3139</v>
       </c>
       <c r="K138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26158333333333333</v>
       </c>
     </row>
@@ -5727,14 +5992,14 @@
         <v>27000</v>
       </c>
       <c r="I139" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J139" s="1">
         <v>3209</v>
       </c>
       <c r="K139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17827777777777779</v>
       </c>
     </row>
@@ -5764,14 +6029,14 @@
         <v>36000</v>
       </c>
       <c r="I140" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J140" s="1">
         <v>3289</v>
       </c>
       <c r="K140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13704166666666667</v>
       </c>
     </row>
@@ -5801,14 +6066,14 @@
         <v>45000</v>
       </c>
       <c r="I141" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J141" s="1">
         <v>3379</v>
       </c>
       <c r="K141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11263333333333334</v>
       </c>
     </row>
@@ -5838,14 +6103,14 @@
         <v>12000</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J142" s="1">
         <v>3239</v>
       </c>
       <c r="K142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26991666666666669</v>
       </c>
     </row>
@@ -5875,14 +6140,14 @@
         <v>18000</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J143" s="1">
         <v>3309</v>
       </c>
       <c r="K143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18383333333333332</v>
       </c>
     </row>
@@ -5912,14 +6177,14 @@
         <v>24000</v>
       </c>
       <c r="I144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J144" s="1">
         <v>3389</v>
       </c>
       <c r="K144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14120833333333332</v>
       </c>
     </row>
@@ -5949,14 +6214,14 @@
         <v>30000</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J145" s="1">
         <v>3479</v>
       </c>
       <c r="K145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11596666666666666</v>
       </c>
     </row>
@@ -5986,14 +6251,14 @@
         <v>24000</v>
       </c>
       <c r="I146" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J146" s="1">
         <v>3229</v>
       </c>
       <c r="K146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26908333333333334</v>
       </c>
     </row>
@@ -6023,14 +6288,14 @@
         <v>36000</v>
       </c>
       <c r="I147" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J147" s="1">
         <v>3299</v>
       </c>
       <c r="K147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18327777777777779</v>
       </c>
     </row>
@@ -6060,14 +6325,14 @@
         <v>48000</v>
       </c>
       <c r="I148" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J148" s="1">
         <v>3379</v>
       </c>
       <c r="K148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14079166666666668</v>
       </c>
     </row>
@@ -6097,14 +6362,14 @@
         <v>60000</v>
       </c>
       <c r="I149" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J149" s="1">
         <v>3469</v>
       </c>
       <c r="K149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11563333333333334</v>
       </c>
     </row>
@@ -6134,14 +6399,14 @@
         <v>18000</v>
       </c>
       <c r="I150" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J150" s="1">
         <v>3329</v>
       </c>
       <c r="K150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27741666666666664</v>
       </c>
     </row>
@@ -6171,14 +6436,14 @@
         <v>27000</v>
       </c>
       <c r="I151" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J151" s="1">
         <v>3399</v>
       </c>
       <c r="K151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18883333333333333</v>
       </c>
     </row>
@@ -6208,14 +6473,14 @@
         <v>36000</v>
       </c>
       <c r="I152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J152" s="1">
         <v>3479</v>
       </c>
       <c r="K152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14495833333333333</v>
       </c>
     </row>
@@ -6245,14 +6510,14 @@
         <v>45000</v>
       </c>
       <c r="I153" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J153" s="1">
         <v>3569</v>
       </c>
       <c r="K153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11896666666666667</v>
       </c>
     </row>
@@ -6282,14 +6547,14 @@
         <v>12000</v>
       </c>
       <c r="I154" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J154" s="1">
         <v>3429</v>
       </c>
       <c r="K154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28575</v>
       </c>
     </row>
@@ -6319,14 +6584,14 @@
         <v>18000</v>
       </c>
       <c r="I155" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J155" s="1">
         <v>3499</v>
       </c>
       <c r="K155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19438888888888889</v>
       </c>
     </row>
@@ -6356,14 +6621,14 @@
         <v>24000</v>
       </c>
       <c r="I156" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J156" s="1">
         <v>3579</v>
       </c>
       <c r="K156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14912500000000001</v>
       </c>
     </row>
@@ -6393,14 +6658,14 @@
         <v>30000</v>
       </c>
       <c r="I157" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J157" s="1">
         <v>3669</v>
       </c>
       <c r="K157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12230000000000001</v>
       </c>
     </row>
@@ -6430,14 +6695,14 @@
         <v>24000</v>
       </c>
       <c r="I158" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J158" s="1">
         <v>3499</v>
       </c>
       <c r="K158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29158333333333336</v>
       </c>
     </row>
@@ -6467,14 +6732,14 @@
         <v>36000</v>
       </c>
       <c r="I159" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J159" s="1">
         <v>3569</v>
       </c>
       <c r="K159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19827777777777778</v>
       </c>
     </row>
@@ -6504,14 +6769,14 @@
         <v>48000</v>
       </c>
       <c r="I160" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J160" s="1">
         <v>3639</v>
       </c>
       <c r="K160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15162500000000001</v>
       </c>
     </row>
@@ -6541,14 +6806,14 @@
         <v>60000</v>
       </c>
       <c r="I161" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J161" s="1">
         <v>3729</v>
       </c>
       <c r="K161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12429999999999999</v>
       </c>
     </row>
@@ -6578,14 +6843,14 @@
         <v>18000</v>
       </c>
       <c r="I162" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J162" s="1">
         <v>3599</v>
       </c>
       <c r="K162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29991666666666666</v>
       </c>
     </row>
@@ -6615,14 +6880,14 @@
         <v>27000</v>
       </c>
       <c r="I163" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J163" s="1">
         <v>3659</v>
       </c>
       <c r="K163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20327777777777778</v>
       </c>
     </row>
@@ -6652,14 +6917,14 @@
         <v>36000</v>
       </c>
       <c r="I164" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J164" s="1">
         <v>3739</v>
       </c>
       <c r="K164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15579166666666666</v>
       </c>
     </row>
@@ -6689,14 +6954,14 @@
         <v>45000</v>
       </c>
       <c r="I165" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J165" s="1">
         <v>3829</v>
       </c>
       <c r="K165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12763333333333332</v>
       </c>
     </row>
@@ -6726,14 +6991,14 @@
         <v>12000</v>
       </c>
       <c r="I166" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J166" s="1">
         <v>3689</v>
       </c>
       <c r="K166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30741666666666667</v>
       </c>
     </row>
@@ -6763,14 +7028,14 @@
         <v>18000</v>
       </c>
       <c r="I167" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J167" s="1">
         <v>3759</v>
       </c>
       <c r="K167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20883333333333334</v>
       </c>
     </row>
@@ -6800,14 +7065,14 @@
         <v>24000</v>
       </c>
       <c r="I168" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J168" s="1">
         <v>3839</v>
       </c>
       <c r="K168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15995833333333334</v>
       </c>
     </row>
@@ -6837,14 +7102,14 @@
         <v>30000</v>
       </c>
       <c r="I169" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J169" s="1">
         <v>3929</v>
       </c>
       <c r="K169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13096666666666668</v>
       </c>
     </row>
@@ -6874,14 +7139,14 @@
         <v>24000</v>
       </c>
       <c r="I170" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J170" s="1">
         <v>4549</v>
       </c>
       <c r="K170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37908333333333333</v>
       </c>
     </row>
@@ -6911,14 +7176,14 @@
         <v>36000</v>
       </c>
       <c r="I171" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J171" s="1">
         <v>4679</v>
       </c>
       <c r="K171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25994444444444442</v>
       </c>
     </row>
@@ -6948,14 +7213,14 @@
         <v>48000</v>
       </c>
       <c r="I172" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J172" s="1">
         <v>4829</v>
       </c>
       <c r="K172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20120833333333332</v>
       </c>
     </row>
@@ -6985,14 +7250,14 @@
         <v>60000</v>
       </c>
       <c r="I173" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J173" s="1">
         <v>4989</v>
       </c>
       <c r="K173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1663</v>
       </c>
     </row>
@@ -7022,14 +7287,14 @@
         <v>18000</v>
       </c>
       <c r="I174" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J174" s="1">
         <v>4629</v>
       </c>
       <c r="K174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38574999999999998</v>
       </c>
     </row>
@@ -7059,14 +7324,14 @@
         <v>27000</v>
       </c>
       <c r="I175" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J175" s="1">
         <v>4779</v>
       </c>
       <c r="K175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26550000000000001</v>
       </c>
     </row>
@@ -7096,14 +7361,14 @@
         <v>36000</v>
       </c>
       <c r="I176" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J176" s="1">
         <v>4929</v>
       </c>
       <c r="K176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.205375</v>
       </c>
     </row>
@@ -7133,14 +7398,14 @@
         <v>45000</v>
       </c>
       <c r="I177" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J177" s="1">
         <v>5079</v>
       </c>
       <c r="K177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16930000000000001</v>
       </c>
     </row>
@@ -7170,14 +7435,14 @@
         <v>12000</v>
       </c>
       <c r="I178" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J178" s="1">
         <v>4719</v>
       </c>
       <c r="K178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.39324999999999999</v>
       </c>
     </row>
@@ -7207,14 +7472,14 @@
         <v>18000</v>
       </c>
       <c r="I179" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J179" s="1">
         <v>4869</v>
       </c>
       <c r="K179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27050000000000002</v>
       </c>
     </row>
@@ -7244,14 +7509,14 @@
         <v>24000</v>
       </c>
       <c r="I180" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J180" s="1">
         <v>5019</v>
       </c>
       <c r="K180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20912500000000001</v>
       </c>
     </row>
@@ -7281,14 +7546,14 @@
         <v>30000</v>
       </c>
       <c r="I181" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J181" s="1">
         <v>5179</v>
       </c>
       <c r="K181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17263333333333333</v>
       </c>
     </row>
@@ -7318,14 +7583,14 @@
         <v>24000</v>
       </c>
       <c r="I182" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J182" s="1">
         <v>5229</v>
       </c>
       <c r="K182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43575000000000003</v>
       </c>
     </row>
@@ -7355,14 +7620,14 @@
         <v>36000</v>
       </c>
       <c r="I183" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J183" s="1">
         <v>5299</v>
       </c>
       <c r="K183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29438888888888887</v>
       </c>
     </row>
@@ -7392,14 +7657,14 @@
         <v>48000</v>
       </c>
       <c r="I184" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J184" s="1">
         <v>5399</v>
       </c>
       <c r="K184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22495833333333334</v>
       </c>
     </row>
@@ -7429,14 +7694,14 @@
         <v>60000</v>
       </c>
       <c r="I185" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J185" s="1">
         <v>5489</v>
       </c>
       <c r="K185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18296666666666667</v>
       </c>
     </row>
@@ -7466,14 +7731,14 @@
         <v>18000</v>
       </c>
       <c r="I186" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J186" s="1">
         <v>5339</v>
       </c>
       <c r="K186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44491666666666668</v>
       </c>
     </row>
@@ -7503,14 +7768,14 @@
         <v>27000</v>
       </c>
       <c r="I187" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J187" s="1">
         <v>5419</v>
       </c>
       <c r="K187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30105555555555558</v>
       </c>
     </row>
@@ -7540,14 +7805,14 @@
         <v>36000</v>
       </c>
       <c r="I188" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J188" s="1">
         <v>5499</v>
       </c>
       <c r="K188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.229125</v>
       </c>
     </row>
@@ -7577,14 +7842,14 @@
         <v>45000</v>
       </c>
       <c r="I189" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J189" s="1">
         <v>5599</v>
       </c>
       <c r="K189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18663333333333335</v>
       </c>
     </row>
@@ -7614,14 +7879,14 @@
         <v>12000</v>
       </c>
       <c r="I190" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J190" s="1">
         <v>5449</v>
       </c>
       <c r="K190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45408333333333334</v>
       </c>
     </row>
@@ -7651,14 +7916,14 @@
         <v>18000</v>
       </c>
       <c r="I191" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
       <c r="J191" s="1">
         <v>5519</v>
       </c>
       <c r="K191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30661111111111111</v>
       </c>
     </row>
@@ -7688,14 +7953,14 @@
         <v>24000</v>
       </c>
       <c r="I192" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
       <c r="J192" s="1">
         <v>5609</v>
       </c>
       <c r="K192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23370833333333332</v>
       </c>
     </row>
@@ -7725,14 +7990,14 @@
         <v>30000</v>
       </c>
       <c r="I193" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="J193" s="4">
         <v>5699</v>
       </c>
       <c r="K193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18996666666666667</v>
       </c>
     </row>
@@ -7762,14 +8027,14 @@
         <v>24000</v>
       </c>
       <c r="I194" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J194" s="1">
         <v>3199</v>
       </c>
       <c r="K194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26658333333333334</v>
       </c>
     </row>
@@ -7799,14 +8064,14 @@
         <v>36000</v>
       </c>
       <c r="I195" s="2">
-        <f t="shared" ref="I195:I258" si="6">H195/G195</f>
+        <f t="shared" ref="I195:I258" si="8">H195/G195</f>
         <v>18000</v>
       </c>
       <c r="J195" s="1">
         <v>3269</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="7">J195/I195</f>
+        <f t="shared" ref="K195:K258" si="9">J195/I195</f>
         <v>0.18161111111111111</v>
       </c>
     </row>
@@ -7836,14 +8101,14 @@
         <v>48000</v>
       </c>
       <c r="I196" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J196" s="1">
         <v>3349</v>
       </c>
       <c r="K196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13954166666666667</v>
       </c>
     </row>
@@ -7873,14 +8138,14 @@
         <v>60000</v>
       </c>
       <c r="I197" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J197" s="1">
         <v>3439</v>
       </c>
       <c r="K197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11463333333333334</v>
       </c>
     </row>
@@ -7910,14 +8175,14 @@
         <v>18000</v>
       </c>
       <c r="I198" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J198" s="1">
         <v>3299</v>
       </c>
       <c r="K198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27491666666666664</v>
       </c>
     </row>
@@ -7947,14 +8212,14 @@
         <v>27000</v>
       </c>
       <c r="I199" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J199" s="1">
         <v>3369</v>
       </c>
       <c r="K199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18716666666666668</v>
       </c>
     </row>
@@ -7984,14 +8249,14 @@
         <v>36000</v>
       </c>
       <c r="I200" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J200" s="1">
         <v>3449</v>
       </c>
       <c r="K200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14370833333333333</v>
       </c>
     </row>
@@ -8021,14 +8286,14 @@
         <v>45000</v>
       </c>
       <c r="I201" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J201" s="1">
         <v>3539</v>
       </c>
       <c r="K201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11796666666666666</v>
       </c>
     </row>
@@ -8058,14 +8323,14 @@
         <v>12000</v>
       </c>
       <c r="I202" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J202" s="1">
         <v>3399</v>
       </c>
       <c r="K202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28325</v>
       </c>
     </row>
@@ -8095,14 +8360,14 @@
         <v>18000</v>
       </c>
       <c r="I203" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J203" s="1">
         <v>3469</v>
       </c>
       <c r="K203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19272222222222221</v>
       </c>
     </row>
@@ -8132,14 +8397,14 @@
         <v>24000</v>
       </c>
       <c r="I204" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J204" s="1">
         <v>3549</v>
       </c>
       <c r="K204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14787500000000001</v>
       </c>
     </row>
@@ -8169,14 +8434,14 @@
         <v>30000</v>
       </c>
       <c r="I205" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J205" s="1">
         <v>3639</v>
       </c>
       <c r="K205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12130000000000001</v>
       </c>
     </row>
@@ -8206,14 +8471,14 @@
         <v>24000</v>
       </c>
       <c r="I206" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J206" s="1">
         <v>2819</v>
       </c>
       <c r="K206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23491666666666666</v>
       </c>
     </row>
@@ -8243,14 +8508,14 @@
         <v>36000</v>
       </c>
       <c r="I207" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J207" s="1">
         <v>2889</v>
       </c>
       <c r="K207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1605</v>
       </c>
     </row>
@@ -8280,14 +8545,14 @@
         <v>48000</v>
       </c>
       <c r="I208" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J208" s="1">
         <v>2969</v>
       </c>
       <c r="K208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12370833333333334</v>
       </c>
     </row>
@@ -8317,14 +8582,14 @@
         <v>60000</v>
       </c>
       <c r="I209" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J209" s="1">
         <v>3059</v>
       </c>
       <c r="K209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10196666666666666</v>
       </c>
     </row>
@@ -8354,14 +8619,14 @@
         <v>18000</v>
       </c>
       <c r="I210" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J210" s="1">
         <v>2919</v>
       </c>
       <c r="K210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24324999999999999</v>
       </c>
     </row>
@@ -8391,14 +8656,14 @@
         <v>27000</v>
       </c>
       <c r="I211" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J211" s="1">
         <v>2989</v>
       </c>
       <c r="K211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16605555555555557</v>
       </c>
     </row>
@@ -8428,14 +8693,14 @@
         <v>36000</v>
       </c>
       <c r="I212" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J212" s="1">
         <v>3069</v>
       </c>
       <c r="K212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12787499999999999</v>
       </c>
     </row>
@@ -8465,14 +8730,14 @@
         <v>45000</v>
       </c>
       <c r="I213" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J213" s="1">
         <v>3159</v>
       </c>
       <c r="K213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1053</v>
       </c>
     </row>
@@ -8502,14 +8767,14 @@
         <v>12000</v>
       </c>
       <c r="I214" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J214" s="1">
         <v>3019</v>
       </c>
       <c r="K214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25158333333333333</v>
       </c>
     </row>
@@ -8539,14 +8804,14 @@
         <v>18000</v>
       </c>
       <c r="I215" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J215" s="1">
         <v>3089</v>
       </c>
       <c r="K215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1716111111111111</v>
       </c>
     </row>
@@ -8576,14 +8841,14 @@
         <v>24000</v>
       </c>
       <c r="I216" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J216" s="1">
         <v>3169</v>
       </c>
       <c r="K216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13204166666666667</v>
       </c>
     </row>
@@ -8613,14 +8878,14 @@
         <v>30000</v>
       </c>
       <c r="I217" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J217" s="1">
         <v>3259</v>
       </c>
       <c r="K217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10863333333333333</v>
       </c>
     </row>
@@ -8650,14 +8915,14 @@
         <v>24000</v>
       </c>
       <c r="I218" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J218" s="1">
         <v>4619</v>
       </c>
       <c r="K218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38491666666666668</v>
       </c>
     </row>
@@ -8687,14 +8952,14 @@
         <v>36000</v>
       </c>
       <c r="I219" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J219" s="1">
         <v>4779</v>
       </c>
       <c r="K219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26550000000000001</v>
       </c>
     </row>
@@ -8724,14 +8989,14 @@
         <v>48000</v>
       </c>
       <c r="I220" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J220" s="1">
         <v>4939</v>
       </c>
       <c r="K220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20579166666666668</v>
       </c>
     </row>
@@ -8761,14 +9026,14 @@
         <v>60000</v>
       </c>
       <c r="I221" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J221" s="1">
         <v>4999</v>
       </c>
       <c r="K221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16663333333333333</v>
       </c>
     </row>
@@ -8798,14 +9063,14 @@
         <v>18000</v>
       </c>
       <c r="I222" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J222" s="1">
         <v>4719</v>
       </c>
       <c r="K222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39324999999999999</v>
       </c>
     </row>
@@ -8835,14 +9100,14 @@
         <v>27000</v>
       </c>
       <c r="I223" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J223" s="1">
         <v>4879</v>
       </c>
       <c r="K223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27105555555555555</v>
       </c>
     </row>
@@ -8872,14 +9137,14 @@
         <v>36000</v>
       </c>
       <c r="I224" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J224" s="1">
         <v>5039</v>
       </c>
       <c r="K224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20995833333333333</v>
       </c>
     </row>
@@ -8909,14 +9174,14 @@
         <v>45000</v>
       </c>
       <c r="I225" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J225" s="1">
         <v>5199</v>
       </c>
       <c r="K225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17330000000000001</v>
       </c>
     </row>
@@ -8946,14 +9211,14 @@
         <v>12000</v>
       </c>
       <c r="I226" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J226" s="1">
         <v>4819</v>
       </c>
       <c r="K226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.40158333333333335</v>
       </c>
     </row>
@@ -8983,14 +9248,14 @@
         <v>18000</v>
       </c>
       <c r="I227" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J227" s="1">
         <v>4979</v>
       </c>
       <c r="K227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27661111111111109</v>
       </c>
     </row>
@@ -9020,14 +9285,14 @@
         <v>24000</v>
       </c>
       <c r="I228" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J228" s="1">
         <v>5139</v>
       </c>
       <c r="K228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.21412500000000001</v>
       </c>
     </row>
@@ -9057,14 +9322,14 @@
         <v>30000</v>
       </c>
       <c r="I229" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J229" s="1">
         <v>5299</v>
       </c>
       <c r="K229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17663333333333334</v>
       </c>
     </row>
@@ -9094,14 +9359,14 @@
         <v>24000</v>
       </c>
       <c r="I230" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J230" s="1">
         <v>2089</v>
       </c>
       <c r="K230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17408333333333334</v>
       </c>
     </row>
@@ -9131,14 +9396,14 @@
         <v>36000</v>
       </c>
       <c r="I231" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J231" s="1">
         <v>2169</v>
       </c>
       <c r="K231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1205</v>
       </c>
     </row>
@@ -9168,14 +9433,14 @@
         <v>48000</v>
       </c>
       <c r="I232" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J232" s="1">
         <v>2249</v>
       </c>
       <c r="K232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.3708333333333338E-2</v>
       </c>
     </row>
@@ -9205,14 +9470,14 @@
         <v>60000</v>
       </c>
       <c r="I233" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J233" s="1">
         <v>2329</v>
       </c>
       <c r="K233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7633333333333332E-2</v>
       </c>
     </row>
@@ -9242,14 +9507,14 @@
         <v>18000</v>
       </c>
       <c r="I234" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J234" s="1">
         <v>2169</v>
       </c>
       <c r="K234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18074999999999999</v>
       </c>
     </row>
@@ -9279,14 +9544,14 @@
         <v>27000</v>
       </c>
       <c r="I235" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J235" s="1">
         <v>2249</v>
       </c>
       <c r="K235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12494444444444444</v>
       </c>
     </row>
@@ -9316,14 +9581,14 @@
         <v>36000</v>
       </c>
       <c r="I236" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J236" s="1">
         <v>2329</v>
       </c>
       <c r="K236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7041666666666665E-2</v>
       </c>
     </row>
@@ -9353,14 +9618,14 @@
         <v>45000</v>
       </c>
       <c r="I237" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J237" s="1">
         <v>2409</v>
       </c>
       <c r="K237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
@@ -9390,14 +9655,14 @@
         <v>12000</v>
       </c>
       <c r="I238" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J238" s="1">
         <v>2249</v>
       </c>
       <c r="K238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18741666666666668</v>
       </c>
     </row>
@@ -9427,14 +9692,14 @@
         <v>18000</v>
       </c>
       <c r="I239" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J239" s="1">
         <v>2329</v>
       </c>
       <c r="K239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12938888888888889</v>
       </c>
     </row>
@@ -9464,14 +9729,14 @@
         <v>24000</v>
       </c>
       <c r="I240" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J240" s="1">
         <v>2409</v>
       </c>
       <c r="K240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10037500000000001</v>
       </c>
     </row>
@@ -9501,14 +9766,14 @@
         <v>30000</v>
       </c>
       <c r="I241" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J241" s="1">
         <v>2489</v>
       </c>
       <c r="K241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.2966666666666661E-2</v>
       </c>
     </row>
@@ -9538,14 +9803,14 @@
         <v>24000</v>
       </c>
       <c r="I242" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J242" s="1">
         <v>4429</v>
       </c>
       <c r="K242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36908333333333332</v>
       </c>
     </row>
@@ -9575,14 +9840,14 @@
         <v>36000</v>
       </c>
       <c r="I243" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J243" s="1">
         <v>4499</v>
       </c>
       <c r="K243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24994444444444444</v>
       </c>
     </row>
@@ -9612,14 +9877,14 @@
         <v>48000</v>
       </c>
       <c r="I244" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J244" s="1">
         <v>4579</v>
       </c>
       <c r="K244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19079166666666666</v>
       </c>
     </row>
@@ -9649,14 +9914,14 @@
         <v>60000</v>
       </c>
       <c r="I245" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J245" s="1">
         <v>4669</v>
       </c>
       <c r="K245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15563333333333335</v>
       </c>
     </row>
@@ -9686,14 +9951,14 @@
         <v>18000</v>
       </c>
       <c r="I246" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J246" s="1">
         <v>4529</v>
       </c>
       <c r="K246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37741666666666668</v>
       </c>
     </row>
@@ -9723,14 +9988,14 @@
         <v>27000</v>
       </c>
       <c r="I247" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J247" s="1">
         <v>4599</v>
       </c>
       <c r="K247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2555</v>
       </c>
     </row>
@@ -9760,14 +10025,14 @@
         <v>36000</v>
       </c>
       <c r="I248" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J248" s="1">
         <v>4679</v>
       </c>
       <c r="K248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19495833333333334</v>
       </c>
     </row>
@@ -9797,14 +10062,14 @@
         <v>45000</v>
       </c>
       <c r="I249" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J249" s="1">
         <v>4769</v>
       </c>
       <c r="K249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15896666666666667</v>
       </c>
     </row>
@@ -9834,14 +10099,14 @@
         <v>12000</v>
       </c>
       <c r="I250" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J250" s="1">
         <v>4629</v>
       </c>
       <c r="K250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38574999999999998</v>
       </c>
     </row>
@@ -9871,14 +10136,14 @@
         <v>18000</v>
       </c>
       <c r="I251" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J251" s="1">
         <v>4699</v>
       </c>
       <c r="K251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26105555555555554</v>
       </c>
     </row>
@@ -9908,14 +10173,14 @@
         <v>24000</v>
       </c>
       <c r="I252" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J252" s="1">
         <v>4779</v>
       </c>
       <c r="K252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.199125</v>
       </c>
     </row>
@@ -9945,14 +10210,14 @@
         <v>30000</v>
       </c>
       <c r="I253" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J253" s="1">
         <v>4869</v>
       </c>
       <c r="K253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1623</v>
       </c>
     </row>
@@ -9982,14 +10247,14 @@
         <v>24000</v>
       </c>
       <c r="I254" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J254" s="1">
         <v>3459</v>
       </c>
       <c r="K254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28825000000000001</v>
       </c>
     </row>
@@ -10019,14 +10284,14 @@
         <v>36000</v>
       </c>
       <c r="I255" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18000</v>
       </c>
       <c r="J255" s="1">
         <v>3529</v>
       </c>
       <c r="K255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19605555555555557</v>
       </c>
     </row>
@@ -10056,14 +10321,14 @@
         <v>48000</v>
       </c>
       <c r="I256" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="J256" s="1">
         <v>3609</v>
       </c>
       <c r="K256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15037500000000001</v>
       </c>
     </row>
@@ -10093,14 +10358,14 @@
         <v>60000</v>
       </c>
       <c r="I257" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30000</v>
       </c>
       <c r="J257" s="1">
         <v>3699</v>
       </c>
       <c r="K257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12330000000000001</v>
       </c>
     </row>
@@ -10130,14 +10395,14 @@
         <v>18000</v>
       </c>
       <c r="I258" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="J258" s="1">
         <v>3559</v>
       </c>
       <c r="K258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29658333333333331</v>
       </c>
     </row>
@@ -10167,14 +10432,14 @@
         <v>27000</v>
       </c>
       <c r="I259" s="2">
-        <f t="shared" ref="I259:I265" si="8">H259/G259</f>
+        <f t="shared" ref="I259:I265" si="10">H259/G259</f>
         <v>18000</v>
       </c>
       <c r="J259" s="1">
         <v>3629</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K265" si="9">J259/I259</f>
+        <f t="shared" ref="K259:K265" si="11">J259/I259</f>
         <v>0.2016111111111111</v>
       </c>
     </row>
@@ -10204,14 +10469,14 @@
         <v>36000</v>
       </c>
       <c r="I260" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="J260" s="1">
         <v>3709</v>
       </c>
       <c r="K260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15454166666666666</v>
       </c>
     </row>
@@ -10241,14 +10506,14 @@
         <v>45000</v>
       </c>
       <c r="I261" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30000</v>
       </c>
       <c r="J261" s="1">
         <v>3799</v>
       </c>
       <c r="K261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.12663333333333332</v>
       </c>
     </row>
@@ -10278,14 +10543,14 @@
         <v>12000</v>
       </c>
       <c r="I262" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12000</v>
       </c>
       <c r="J262" s="1">
         <v>3659</v>
       </c>
       <c r="K262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30491666666666667</v>
       </c>
     </row>
@@ -10315,14 +10580,14 @@
         <v>18000</v>
       </c>
       <c r="I263" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18000</v>
       </c>
       <c r="J263" s="1">
         <v>3729</v>
       </c>
       <c r="K263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20716666666666667</v>
       </c>
     </row>
@@ -10352,14 +10617,14 @@
         <v>24000</v>
       </c>
       <c r="I264" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
       <c r="J264" s="1">
         <v>3809</v>
       </c>
       <c r="K264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15870833333333334</v>
       </c>
     </row>
@@ -10389,14 +10654,14 @@
         <v>30000</v>
       </c>
       <c r="I265" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30000</v>
       </c>
       <c r="J265" s="1">
         <v>3899</v>
       </c>
       <c r="K265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.12996666666666667</v>
       </c>
     </row>
@@ -10408,12 +10673,1550 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0A093-09EA-4AAE-A17D-A0A8B73B82BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2233.52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2299.11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>4500</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2301.6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2326.83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2354.5500000000002</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>4500</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2573.7600000000002</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>2598.96</v>
+      </c>
+      <c r="R8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>34</v>
+      </c>
+      <c r="Q9">
+        <v>2649.02</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>4500</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2849.62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>34</v>
+      </c>
+      <c r="Q11">
+        <v>3098.93</v>
+      </c>
+      <c r="R11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2496.12</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>2598.96</v>
+      </c>
+      <c r="R13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>34</v>
+      </c>
+      <c r="Q14">
+        <v>2798.88</v>
+      </c>
+      <c r="R14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>4500</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2849.62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>4500</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>2849.62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>34</v>
+      </c>
+      <c r="Q17">
+        <v>3282.72</v>
+      </c>
+      <c r="R17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>34</v>
+      </c>
+      <c r="Q18">
+        <v>3232.66</v>
+      </c>
+      <c r="R18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>34</v>
+      </c>
+      <c r="Q19">
+        <v>3432.58</v>
+      </c>
+      <c r="R19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>34</v>
+      </c>
+      <c r="Q20">
+        <v>3732.62</v>
+      </c>
+      <c r="R20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>34</v>
+      </c>
+      <c r="Q21">
+        <v>4698.96</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>34</v>
+      </c>
+      <c r="Q22">
+        <v>6864.48</v>
+      </c>
+      <c r="R22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>34</v>
+      </c>
+      <c r="Q23">
+        <v>3222.58</v>
+      </c>
+      <c r="R23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>34</v>
+      </c>
+      <c r="Q24">
+        <v>2570.4</v>
+      </c>
+      <c r="R24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2634.77</v>
+      </c>
+      <c r="R25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>4500</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>3200.74</v>
+      </c>
+      <c r="R26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>34</v>
+      </c>
+      <c r="Q27">
+        <v>2784.6</v>
+      </c>
+      <c r="R27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/predicao_preco_locacao/precos_porto_seguro.xlsx
+++ b/predicao_preco_locacao/precos_porto_seguro.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozam\Documents\ABLA\projetos\predicao_preco_locacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABLA 06\Downloads\predicao_custo_locacao-main\predicao_preco_locacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1E301-0275-4DD0-9A33-91E3B0724ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B29243-A89E-4435-94EF-E89D0011DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{15ED140B-8B31-49FB-953C-AB358474D76A}"/>
+    <workbookView xWindow="38715" yWindow="2955" windowWidth="17310" windowHeight="9000" activeTab="1" xr2:uid="{15ED140B-8B31-49FB-953C-AB358474D76A}"/>
   </bookViews>
   <sheets>
     <sheet name="porto_seguro" sheetId="1" r:id="rId1"/>
     <sheet name="rent_cars" sheetId="2" r:id="rId2"/>
+    <sheet name="carro_ideal" sheetId="3" r:id="rId3"/>
+    <sheet name="carro_ideal_frota" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="175">
   <si>
     <t>VIRTUS</t>
   </si>
@@ -233,9 +236,6 @@
     <t>VW Up! ou similar </t>
   </si>
   <si>
-    <t>Econômico / A</t>
-  </si>
-  <si>
     <t>local_retirada</t>
   </si>
   <si>
@@ -284,9 +284,6 @@
     <t>Fiat Mobi ou similar </t>
   </si>
   <si>
-    <t>Econômico / B</t>
-  </si>
-  <si>
     <t>portas</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>Renault Kwid ou similar </t>
   </si>
   <si>
-    <t>Econômico / AM</t>
-  </si>
-  <si>
     <t>Balcão de Atendimento no Aeroporto</t>
   </si>
   <si>
@@ -320,121 +314,256 @@
     <t>VW Gol ou similar </t>
   </si>
   <si>
-    <t>Econômico / D</t>
-  </si>
-  <si>
     <t>Chevrolet Onix ou similar </t>
   </si>
   <si>
-    <t>Econômico / D+</t>
-  </si>
-  <si>
     <t>Fiat Argo ou similar </t>
   </si>
   <si>
     <t>Hyundai HB20 ou similar </t>
   </si>
   <si>
-    <t>Compacto / BX</t>
-  </si>
-  <si>
     <t>movida</t>
   </si>
   <si>
     <t>Peugeot 208 ou similar </t>
   </si>
   <si>
-    <t>Compacto / C</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
     <t>Renault Sandero ou similar </t>
   </si>
   <si>
-    <t>Compacto / E</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
-    <t>Compacto / D</t>
-  </si>
-  <si>
     <t>automatico</t>
   </si>
   <si>
     <t>Renault Logan ou similar </t>
   </si>
   <si>
-    <t>Intermediário / F</t>
-  </si>
-  <si>
     <t>Chevrolet Onix Plus ou similar </t>
   </si>
   <si>
-    <t>Intermediário / BS</t>
-  </si>
-  <si>
     <t>Fiat Cronos ou similar </t>
   </si>
   <si>
     <t>Chevrolet Prisma ou similar </t>
   </si>
   <si>
-    <t>Intermediário / C</t>
-  </si>
-  <si>
     <t>Hyundai HB20S ou similar </t>
   </si>
   <si>
-    <t>Intermediário / FX</t>
-  </si>
-  <si>
     <t>Peugeot 2008 ou similar </t>
   </si>
   <si>
-    <t>SUV / H</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
     <t>Jeep Renegade ou similar </t>
   </si>
   <si>
-    <t>SUV / HW</t>
-  </si>
-  <si>
     <t>Renault Captur ou similar </t>
   </si>
   <si>
-    <t>SUV / HX</t>
-  </si>
-  <si>
     <t>Jeep Compass ou similar </t>
   </si>
   <si>
-    <t>SUV / HY</t>
-  </si>
-  <si>
     <t>VW Tiguan 4x2 ou similar </t>
   </si>
   <si>
-    <t>SUV / KX</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
     <t>VW Saveiro ou similar </t>
   </si>
   <si>
-    <t>Utilitário / L</t>
-  </si>
-  <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Econômico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compacto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediário </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUV </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilitário </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L</t>
+  </si>
+  <si>
+    <t>categoria_cliente</t>
+  </si>
+  <si>
+    <t>categoria_veiculo</t>
+  </si>
+  <si>
+    <t>modelos</t>
+  </si>
+  <si>
+    <t>solteiro</t>
+  </si>
+  <si>
+    <t>economico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volkswagen Up! TSI 1.0, Chevrolet Prisma 1.0, Peugeot 208 1.2 </t>
+  </si>
+  <si>
+    <t>familia_grande</t>
+  </si>
+  <si>
+    <t>minivans e suvs</t>
+  </si>
+  <si>
+    <t>Chevrolet Spin Premier 1.8, Fiat Doblò Essence 1.8, Lifan X80 2.0</t>
+  </si>
+  <si>
+    <t>casado</t>
+  </si>
+  <si>
+    <t>compactos</t>
+  </si>
+  <si>
+    <t>HB20 Unique BlueMedia 1.0, Onix Joy 1.0, Etios X 1.3</t>
+  </si>
+  <si>
+    <t>viajante</t>
+  </si>
+  <si>
+    <t>Ford Fusion 2.0 hybrid, Renault Logan 1.6, Chery Celer 1.6</t>
+  </si>
+  <si>
+    <t>aventureiro</t>
+  </si>
+  <si>
+    <t>crossover</t>
+  </si>
+  <si>
+    <t>Hyundai Creta 1.6, Jeep Compass 2.0, Ford Ecosport 1.5</t>
+  </si>
+  <si>
+    <t>fonte</t>
+  </si>
+  <si>
+    <t>tiozao</t>
+  </si>
+  <si>
+    <t>sedan medio</t>
+  </si>
+  <si>
+    <t>Corolla, Civic</t>
+  </si>
+  <si>
+    <t>playboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacth medio </t>
+  </si>
+  <si>
+    <t>Volkswagen Golf, Audi A3, Hyundai Veloster</t>
+  </si>
+  <si>
+    <t>racional</t>
+  </si>
+  <si>
+    <t>veiculos utilitarios</t>
+  </si>
+  <si>
+    <t>transporte_carga</t>
+  </si>
+  <si>
+    <t>transporte_pessoas</t>
+  </si>
+  <si>
+    <t>rodovias</t>
+  </si>
+  <si>
+    <t>estradas_rurais</t>
+  </si>
+  <si>
+    <t>entrega de produtos, industria alimenticia</t>
+  </si>
+  <si>
+    <t>volkswagem kombi, Fiat fiorino</t>
+  </si>
+  <si>
+    <t>picape</t>
+  </si>
+  <si>
+    <t>chevrolet saveiro, volkswagen amarok</t>
+  </si>
+  <si>
+    <t>kilometragem</t>
+  </si>
+  <si>
+    <t>Ilimitada</t>
+  </si>
+  <si>
+    <t>Limitada período</t>
+  </si>
+  <si>
+    <t>Limitada dia</t>
   </si>
 </sst>
 </file>
@@ -498,7 +627,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1091,7 +1220,7 @@
         <v>0.18272222222222223</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L10" si="2">100-(K7*100/$K$6)</f>
+        <f t="shared" ref="L7:L9" si="2">100-(K7*100/$K$6)</f>
         <v>31.883607745676713</v>
       </c>
     </row>
@@ -10673,34 +10802,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0A093-09EA-4AAE-A17D-A0A8B73B82BA}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -10709,90 +10846,96 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>68</v>
       </c>
       <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -10801,54 +10944,60 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>2233.52</v>
       </c>
-      <c r="R2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>79</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>172</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -10857,110 +11006,122 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>2299.11</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>4500</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2301.6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>4500</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2301.6</v>
-      </c>
-      <c r="R4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>172</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -10969,54 +11130,60 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>2326.83</v>
       </c>
-      <c r="R5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>172</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -11025,334 +11192,370 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>2354.5500000000002</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>4500</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2573.7600000000002</v>
+      </c>
+      <c r="T7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>4500</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2573.7600000000002</v>
-      </c>
-      <c r="R7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>174</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>34</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>2598.96</v>
       </c>
-      <c r="R8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s">
+        <v>174</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>34</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>2649.02</v>
       </c>
-      <c r="R9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4500</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2849.62</v>
+      </c>
+      <c r="T10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>4500</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2849.62</v>
-      </c>
-      <c r="R10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>174</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
         <v>34</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>3098.93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>172</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -11361,720 +11564,798 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>2496.12</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" t="s">
+        <v>174</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>34</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>2598.96</v>
       </c>
-      <c r="R13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>174</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>34</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>2798.88</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>4500</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>2849.62</v>
+      </c>
+      <c r="T15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>4500</v>
       </c>
-      <c r="O15">
+      <c r="Q16">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="R16">
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="S16">
         <v>2849.62</v>
       </c>
-      <c r="R15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="T16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>4500</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>2849.62</v>
-      </c>
-      <c r="R16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
       </c>
       <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" t="s">
+        <v>174</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>34</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>3282.72</v>
       </c>
-      <c r="R17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>99</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" t="s">
+        <v>174</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
         <v>34</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>3232.66</v>
       </c>
-      <c r="R18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
       </c>
       <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>174</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
         <v>34</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>3432.58</v>
       </c>
-      <c r="R19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>99</v>
       </c>
       <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>174</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>34</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>3732.62</v>
       </c>
-      <c r="R20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
       </c>
       <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" t="s">
+        <v>174</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>34</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>4698.96</v>
       </c>
-      <c r="R21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
         <v>7</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
       </c>
       <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="L22" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" t="s">
+        <v>174</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>34</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>6864.48</v>
       </c>
-      <c r="R22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
       </c>
       <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+      <c r="L23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" t="s">
+        <v>174</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>34</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>3222.58</v>
       </c>
-      <c r="R23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24">
         <v>5</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" t="s">
+        <v>174</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>34</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>2570.4</v>
       </c>
-      <c r="R24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>79</v>
       </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" t="s">
+        <v>172</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -12083,140 +12364,396 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>2634.77</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>4500</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>3200.74</v>
+      </c>
+      <c r="T26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27">
         <v>5</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>4500</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3200.74</v>
-      </c>
-      <c r="R26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
       </c>
       <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>84</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
         <v>34</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>2784.6</v>
       </c>
-      <c r="R27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3A51BB-7A2A-44D6-8A4D-84270F264CCD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A7A0AE-A9F0-44F5-830B-61560727914A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D912EA2D-290E-47E3-A890-F800AD6FD06F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>